--- a/Administration/Documentation/flynet_requirements_chart.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="228">
   <si>
     <t>Level 1 Requirement</t>
   </si>
@@ -33,9 +33,6 @@
     <t>The system shall consist of a team of (TBD) robots</t>
   </si>
   <si>
-    <t>The system shall perform a target search</t>
-  </si>
-  <si>
     <t>The system shall be autonomous</t>
   </si>
   <si>
@@ -430,13 +427,289 @@
   </si>
   <si>
     <t>8.4.1</t>
+  </si>
+  <si>
+    <t>The aerial vehicle will maintain a minimum distance of TBD from obstacles</t>
+  </si>
+  <si>
+    <t>The system shall perform a search for targets</t>
+  </si>
+  <si>
+    <t>The system shall oeprate in various indoor lighting conditions</t>
+  </si>
+  <si>
+    <t>The system shall maintain vehicle state estimate to within TBD distance in no light conditions</t>
+  </si>
+  <si>
+    <t>The system visual sensor performance shall not be affected by 60 Hz light flickering</t>
+  </si>
+  <si>
+    <t>The system shall maintain obstacle avoidance in no light conditions</t>
+  </si>
+  <si>
+    <t>The system shall maintain target identification and tracking requirements in rooms with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall operate in environments with 60 Hz fluroescent lighting </t>
+  </si>
+  <si>
+    <t>The system shall operate in environments with little to no existing light</t>
+  </si>
+  <si>
+    <t>9.1.1</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>9.2.3</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Proposed Solution</t>
+  </si>
+  <si>
+    <t>Record images</t>
+  </si>
+  <si>
+    <t>Load images into processing software</t>
+  </si>
+  <si>
+    <t>Report pixel location of visually identified targetsfrom image processing software for targets in image</t>
+  </si>
+  <si>
+    <t>Correctly identify all targets in image with 95% accuracy, run statistics on experimental results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the obstacle on trajectory with collision on the course, verify that the obstacle is avoided. </t>
+  </si>
+  <si>
+    <t>Calculate a trajectory and report waypoints between current position and desired position, visually verify results</t>
+  </si>
+  <si>
+    <t>Run experiments on identification percentage at various distances to target in order to characterize visual identification range</t>
+  </si>
+  <si>
+    <t>The system shall plan and record a trajectory through a course of obstacles. The position of the moving vehicle will be recorded by a VICON system. The measured position and trajectory waypoints will be used to characterize the RMS position error</t>
+  </si>
+  <si>
+    <t>The vehicle will be sent on a crash course with obstacles, the minimum distance between vehicle and obstacle will be measured by a VICON system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will be sent on a racetrack trajectory and the total capable search time measured. </t>
+  </si>
+  <si>
+    <t>The total distance travelled during the verification of 1.3.1 will be calculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The estimated position of the target on the system will be compared with that of the target position recorded by a VICON system. </t>
+  </si>
+  <si>
+    <t>10 targets will be placed in the field of view of the visual sensor and estimated positions of visually identified targets will be reported</t>
+  </si>
+  <si>
+    <t>The system will report tracks of confirmed targets and report them over the course of its search</t>
+  </si>
+  <si>
+    <t>The time of each updated track position shall be reported</t>
+  </si>
+  <si>
+    <t>Visually verified flight</t>
+  </si>
+  <si>
+    <t>An autonomous take will be visually verified</t>
+  </si>
+  <si>
+    <t>An autonomus landing will visually verified</t>
+  </si>
+  <si>
+    <t>All computing platforms will be mounted onboard system vehicles</t>
+  </si>
+  <si>
+    <t>All perception operations will occur on onboard computing platforms. Design requirement</t>
+  </si>
+  <si>
+    <t>Deisgn requirement</t>
+  </si>
+  <si>
+    <t>Design requirement</t>
+  </si>
+  <si>
+    <t>Flight testing with additional payload attached</t>
+  </si>
+  <si>
+    <t>Perceived landing zone position shall be reported</t>
+  </si>
+  <si>
+    <t>Visually verify payload release</t>
+  </si>
+  <si>
+    <t>Flight and system power timing test</t>
+  </si>
+  <si>
+    <t>Flight testing</t>
+  </si>
+  <si>
+    <t>Send test data packets and PPU will report received status</t>
+  </si>
+  <si>
+    <t>PPU will send test packets, receiving system will report received status</t>
+  </si>
+  <si>
+    <t>Information exchange times between PPUs will be recorded</t>
+  </si>
+  <si>
+    <t>PPU will report perceived obstacle positions, verified against VICON position measurement of obstacles</t>
+  </si>
+  <si>
+    <t>See verification of 7.2.2</t>
+  </si>
+  <si>
+    <t>PPUs will report the received maps from other PPUs</t>
+  </si>
+  <si>
+    <t>PPUs will report all receied confirmed tracks</t>
+  </si>
+  <si>
+    <t>The system will report identified tags</t>
+  </si>
+  <si>
+    <t>Statistical tests on verification of 8.2.1</t>
+  </si>
+  <si>
+    <t>Range tests on verification of 8.2.1</t>
+  </si>
+  <si>
+    <t>Report tag ID number, confirm all tags are uniquely identified</t>
+  </si>
+  <si>
+    <t>Operation of system in florescent lighting</t>
+  </si>
+  <si>
+    <t>Run verification of localization in no lighting (drapes over windows, lights off)</t>
+  </si>
+  <si>
+    <t>Run verification of obstacle avoidance in no lighting (drapes over windows, lights off)</t>
+  </si>
+  <si>
+    <t>Run target identification and tracking tests in no lighting</t>
+  </si>
+  <si>
+    <t>ASUS Xtion Live Pro (RGBD Camera)</t>
+  </si>
+  <si>
+    <t>Interfacing Xtion with onboard processor</t>
+  </si>
+  <si>
+    <t>Use of OpenCV target identification software</t>
+  </si>
+  <si>
+    <t>Tune parameters of OpenCV tracking software to identify targets with correct POD</t>
+  </si>
+  <si>
+    <t>Resolution of RGBD camera</t>
+  </si>
+  <si>
+    <t>Use of laser/ultrasonic rangefinders</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Interfacing of trajectory planner with Pixhawk position controller</t>
+  </si>
+  <si>
+    <t>Position control/obstacle avoidance algorithms will maintain distance</t>
+  </si>
+  <si>
+    <t>Battery and motor choices? Platform choice/weight and sensor and computer weights</t>
+  </si>
+  <si>
+    <t>Platform and battery choice</t>
+  </si>
+  <si>
+    <t>Use of Kalman filter and range information from RGBD camera to localize target</t>
+  </si>
+  <si>
+    <t>Association filter for creating new tracks and associating measurements?</t>
+  </si>
+  <si>
+    <t>Confirmed targets will not demise after any time, algorithm spec</t>
+  </si>
+  <si>
+    <t>NVIDIA Jetson for processing power</t>
+  </si>
+  <si>
+    <t>Quadrotor aerial vehicle</t>
+  </si>
+  <si>
+    <t>Autonomous take off sequence for quad through software, uses altimeter (rangefinder)</t>
+  </si>
+  <si>
+    <t>Autonomous landing sequence for quad through software, uses altimeter (rangefinder)</t>
+  </si>
+  <si>
+    <t>NVIDIA Jetson</t>
+  </si>
+  <si>
+    <t>Jetson</t>
+  </si>
+  <si>
+    <t>Xtion, rangefinders</t>
+  </si>
+  <si>
+    <t>Quadrotor H frame with acceptable payload capabilities</t>
+  </si>
+  <si>
+    <t>Algorithms on Jetson</t>
+  </si>
+  <si>
+    <t>Quadrotor platform</t>
+  </si>
+  <si>
+    <t>Localization algorithms, target ID algorithms</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>LTE, Wifi, Radio transmitter</t>
+  </si>
+  <si>
+    <t>LTE, Wifi, Radio receiver</t>
+  </si>
+  <si>
+    <t>Limited by: Comm through building, or algorithm scheduled meetings for information exchange</t>
+  </si>
+  <si>
+    <t>Xtion</t>
+  </si>
+  <si>
+    <t>SLAM Algorithm</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>QR Codes</t>
+  </si>
+  <si>
+    <t>Xtion/OpenCV</t>
+  </si>
+  <si>
+    <t>Range finder on xtion, sonic and laser rangefinders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,6 +731,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -473,7 +754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -533,11 +814,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -545,11 +839,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,10 +860,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,638 +1207,967 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="55" style="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="58.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="50.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="20">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="54">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="36">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4" t="s">
+      <c r="E11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="36">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="54">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="54">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="36">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="36">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="36">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="36">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="36">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="36">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="36">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="36">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="36">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="36">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="36">
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="36" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="36">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="36">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="54">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="36">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="36" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="36">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="36">
+      <c r="A44" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="36">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="36">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="36">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="2"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="4" t="s">
+      <c r="B50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" ht="36">
+      <c r="A51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" ht="36">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" ht="36">
+      <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" ht="54">
+      <c r="A56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" ht="72">
+      <c r="A57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="36">
+      <c r="A58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="36">
+      <c r="A59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="36">
-      <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="36">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="36">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="36">
-      <c r="A28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="36" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="36">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="36" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="36">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="36">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" ht="36">
-      <c r="A55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" ht="54">
-      <c r="A56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="36">
+      <c r="A60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A2:A11"/>
+  <mergeCells count="22">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Administration/Documentation/flynet_requirements_chart.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart.xlsx
@@ -848,18 +848,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -874,6 +862,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1234,27 +1234,27 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1265,12 +1265,12 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1281,12 +1281,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="54">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1297,12 +1297,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="36">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1313,12 +1313,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="54">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1329,14 +1329,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="36">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1347,12 +1347,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="54">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1363,12 +1363,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="90">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1379,12 +1379,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="54">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
         <v>159</v>
       </c>
@@ -1393,14 +1393,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="36">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1411,12 +1411,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="36">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1427,16 +1427,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="54">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1447,12 +1447,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="54">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1463,12 +1463,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="36">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="36">
-      <c r="A16" s="8"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1497,16 +1497,16 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1517,12 +1517,12 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="36">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>110</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1533,12 +1533,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="36">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1549,16 +1549,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="36">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1569,12 +1569,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="36">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1585,14 +1585,14 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1603,14 +1603,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="36">
-      <c r="A23" s="7"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1621,14 +1621,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="36">
-      <c r="A24" s="8"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1639,16 +1639,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="36">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1659,14 +1659,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="36">
-      <c r="A26" s="7"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1677,14 +1677,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="36">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1695,12 +1695,12 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="36">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1711,16 +1711,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="36">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1731,12 +1731,12 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1747,16 +1747,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="36" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1767,12 +1767,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="36">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1783,12 +1783,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="36">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1799,14 +1799,14 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1817,12 +1817,12 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="54">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1833,14 +1833,14 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1851,12 +1851,12 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="36">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1867,14 +1867,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="36">
-      <c r="A38" s="8"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1885,16 +1885,16 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="36" customHeight="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -1905,14 +1905,14 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -1923,14 +1923,14 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="36">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -1941,12 +1941,12 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1957,14 +1957,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="36">
-      <c r="A43" s="8"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="8" t="s">
         <v>135</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -1975,16 +1975,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="36">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -1995,11 +1995,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="36">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2013,9 +2013,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="36">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -2029,9 +2029,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="36">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -2146,12 +2146,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B13:B15"/>
@@ -2160,6 +2154,12 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B29:B30"/>

--- a/Administration/Documentation/flynet_requirements_chart.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Resolution of RGBD camera</t>
   </si>
   <si>
-    <t>The system shall navigate an unknown environment</t>
-  </si>
-  <si>
     <t>The vehicles shall avoid unrecoverable collisions with obstacles</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Position control/obstacle avoidance algorithms will maintain distance</t>
   </si>
   <si>
-    <t>The system shall search a 50,000 ft^2 area</t>
-  </si>
-  <si>
     <t>The system shall have power to sustain TBD minutes of search time with full payload</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
   </si>
   <si>
     <t>NVIDIA Jetson for processing power</t>
-  </si>
-  <si>
-    <t>The system shall consist of a team of (TBD) robots</t>
   </si>
   <si>
     <t>The system shall have at least 1 aerial vehicle</t>
@@ -287,9 +278,6 @@
   </si>
   <si>
     <t>Autonomous landing sequence for quad through software, uses altimeter (rangefinder)</t>
-  </si>
-  <si>
-    <t>The system shall be autonomous</t>
   </si>
   <si>
     <r>
@@ -347,9 +335,6 @@
     <t>Jetson</t>
   </si>
   <si>
-    <t>The system shall not have external sensing</t>
-  </si>
-  <si>
     <t>The system shall carry sensing capabilities onboard</t>
   </si>
   <si>
@@ -389,9 +374,6 @@
     <t>Algorithms on Jetson</t>
   </si>
   <si>
-    <t>The aerial vehicle shall deliver a 1 lb payload</t>
-  </si>
-  <si>
     <t>The vehicle shall produce enough lift to carry itself and the additional payload</t>
   </si>
   <si>
@@ -407,9 +389,6 @@
     <t>Quadrotor platform</t>
   </si>
   <si>
-    <t>The aerial vehicle shall navigate to a delivery zone</t>
-  </si>
-  <si>
     <t>The aerial vehicle shall identify the delivery zone based on confirmed target ID and target position (clarify delivery zone, near targets?, identifiable by landmarks? Etc.)</t>
   </si>
   <si>
@@ -467,7 +446,322 @@
     <t>Flight testing</t>
   </si>
   <si>
-    <t>The vehicle PPUs shall communicate obstacle and target state information with other PPUs</t>
+    <t>PPUs shall each have the capability to receive data</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>Send test data packets and PPU will report received status</t>
+  </si>
+  <si>
+    <t>LTE, Wifi, Radio transmitter</t>
+  </si>
+  <si>
+    <t>PPUs shall each have the capability to transmit data</t>
+  </si>
+  <si>
+    <t>7.1.2</t>
+  </si>
+  <si>
+    <t>PPU will send test packets, receiving system will report received status</t>
+  </si>
+  <si>
+    <t>LTE, Wifi, Radio receiver</t>
+  </si>
+  <si>
+    <r>
+      <t>PPUs will exchange information with a frequency of TBD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>7.1.3</t>
+  </si>
+  <si>
+    <t>Information exchange times between PPUs will be recorded</t>
+  </si>
+  <si>
+    <t>Limited by: Comm through building, or algorithm scheduled meetings for information exchange</t>
+  </si>
+  <si>
+    <t>The system shall detect the position of obstacles</t>
+  </si>
+  <si>
+    <t>PPUs shall have an obstacle sensor</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>Xtion</t>
+  </si>
+  <si>
+    <t>PPUs shall have an obstacle perceiver</t>
+  </si>
+  <si>
+    <t>7.2.2</t>
+  </si>
+  <si>
+    <t>PPU will report perceived obstacle positions, verified against VICON position measurement of obstacles</t>
+  </si>
+  <si>
+    <t>SLAM Algorithm</t>
+  </si>
+  <si>
+    <t>The system shall share obstacle information</t>
+  </si>
+  <si>
+    <t>PPUs shall maintain an obstacle map</t>
+  </si>
+  <si>
+    <t>7.3.1</t>
+  </si>
+  <si>
+    <t>See verification of 7.2.2</t>
+  </si>
+  <si>
+    <t>PPUs will have the ability to communicate their obstacle map to other PPUs</t>
+  </si>
+  <si>
+    <t>7.3.2</t>
+  </si>
+  <si>
+    <t>PPUs will report the received maps from other PPUs</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>The system shall share target information</t>
+  </si>
+  <si>
+    <t>The system shall have the ability to communicate confirmed target tracks</t>
+  </si>
+  <si>
+    <t>7.4.1</t>
+  </si>
+  <si>
+    <t>PPUs will report all receied confirmed tracks</t>
+  </si>
+  <si>
+    <t>The system shall tag/confirm targets using pre-tagged identifiers</t>
+  </si>
+  <si>
+    <t>The targets will be pre tagged</t>
+  </si>
+  <si>
+    <t>Tags shall be transferable</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>QR Codes</t>
+  </si>
+  <si>
+    <t>The system shall be capable of identifying tags</t>
+  </si>
+  <si>
+    <t>The system shall have a target tag sensor/identifier</t>
+  </si>
+  <si>
+    <t>8.2.1</t>
+  </si>
+  <si>
+    <t>The system will report identified tags</t>
+  </si>
+  <si>
+    <t>The system shall confirm targets tags</t>
+  </si>
+  <si>
+    <t>The system shall detect target tags with TBD% probability of detection</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>Statistical tests on verification of 8.2.1</t>
+  </si>
+  <si>
+    <t>Xtion/OpenCV</t>
+  </si>
+  <si>
+    <t>The system shall detect target tags within TBD distance</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>Range tests on verification of 8.2.1</t>
+  </si>
+  <si>
+    <t>Tags shall be independently identifiable</t>
+  </si>
+  <si>
+    <t>Tags shall have a uniquely determined, measurable characteristic</t>
+  </si>
+  <si>
+    <t>8.4.1</t>
+  </si>
+  <si>
+    <t>Report tag ID number, confirm all tags are uniquely identified</t>
+  </si>
+  <si>
+    <t>The system shall operate in various indoor lighting conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall operate in environments with 60 Hz fluroescent lighting </t>
+  </si>
+  <si>
+    <t>The system visual sensor performance shall not be affected by 60 Hz light flickering</t>
+  </si>
+  <si>
+    <t>9.1.1</t>
+  </si>
+  <si>
+    <t>Operation of system in florescent lighting</t>
+  </si>
+  <si>
+    <t>The system shall operate in environments with little to no existing light</t>
+  </si>
+  <si>
+    <t>The system shall maintain vehicle state estimate to within TBD distance in no light conditions</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>Run verification of localization in no lighting (drapes over windows, lights off)</t>
+  </si>
+  <si>
+    <t>Range finder on xtion, sonic and laser rangefinders</t>
+  </si>
+  <si>
+    <t>The system shall maintain obstacle avoidance in no light conditions</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>Run verification of obstacle avoidance in no lighting (drapes over windows, lights off)</t>
+  </si>
+  <si>
+    <t>The system shall maintain target identification and tracking requirements in rooms with</t>
+  </si>
+  <si>
+    <t>9.2.3</t>
+  </si>
+  <si>
+    <t>Run target identification and tracking tests in no lighting</t>
+  </si>
+  <si>
+    <t>The system shall be compatible with VICON</t>
+  </si>
+  <si>
+    <t>The system shall not interfere with VICON or suffer fault due to vicon operation (for testing purposes)</t>
+  </si>
+  <si>
+    <t>9.3.1</t>
+  </si>
+  <si>
+    <t>Static test</t>
+  </si>
+  <si>
+    <t>Keywords/Acronyms</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Team of vehicles + PPUs performing the mission</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Searching an unknown territory for a target</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>A human or object of interest for searching/tracking</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Interpretation/manipulation of data from sensors</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>The vehicle frame, electronics, and (if applicable) motors and wheels. Does not include PPU.</t>
+  </si>
+  <si>
+    <t>PPU (Perception and Planning Unit)</t>
+  </si>
+  <si>
+    <t>External Weight</t>
+  </si>
+  <si>
+    <t>Any weight that is additional to platform and PPU weight</t>
+  </si>
+  <si>
+    <t>Onboard</t>
+  </si>
+  <si>
+    <t>Attached to any one of the vehicles in the system</t>
+  </si>
+  <si>
+    <t>Unrecoverable Collision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collision which renders the vehicle incapable of moving. </t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall consist of a team of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>at least 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> robots</t>
+    </r>
   </si>
   <si>
     <r>
@@ -488,314 +782,90 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>amongst themselves</t>
-    </r>
-  </si>
-  <si>
-    <t>PPUs shall each have the capability to receive data</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>Send test data packets and PPU will report received status</t>
-  </si>
-  <si>
-    <t>LTE, Wifi, Radio transmitter</t>
-  </si>
-  <si>
-    <t>PPUs shall each have the capability to transmit data</t>
-  </si>
-  <si>
-    <t>7.1.2</t>
-  </si>
-  <si>
-    <t>PPU will send test packets, receiving system will report received status</t>
-  </si>
-  <si>
-    <t>LTE, Wifi, Radio receiver</t>
-  </si>
-  <si>
-    <r>
-      <t>PPUs will exchange information with a frequency of TBD</t>
+      <t xml:space="preserve">amongst themselves </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[must they be in communication at all times, or able to talk when close enough?]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The system shall navigate an unknown environment,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
+      <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>7.1.3</t>
-  </si>
-  <si>
-    <t>Information exchange times between PPUs will be recorded</t>
-  </si>
-  <si>
-    <t>Limited by: Comm through building, or algorithm scheduled meetings for information exchange</t>
-  </si>
-  <si>
-    <t>The system shall detect the position of obstacles</t>
-  </si>
-  <si>
-    <t>PPUs shall have an obstacle sensor</t>
-  </si>
-  <si>
-    <t>7.2.1</t>
-  </si>
-  <si>
-    <t>Xtion</t>
-  </si>
-  <si>
-    <t>PPUs shall have an obstacle perceiver</t>
-  </si>
-  <si>
-    <t>7.2.2</t>
-  </si>
-  <si>
-    <t>PPU will report perceived obstacle positions, verified against VICON position measurement of obstacles</t>
-  </si>
-  <si>
-    <t>SLAM Algorithm</t>
-  </si>
-  <si>
-    <t>The system shall share obstacle information</t>
-  </si>
-  <si>
-    <t>PPUs shall maintain an obstacle map</t>
-  </si>
-  <si>
-    <t>7.3.1</t>
-  </si>
-  <si>
-    <t>See verification of 7.2.2</t>
-  </si>
-  <si>
-    <t>PPUs will have the ability to communicate their obstacle map to other PPUs</t>
-  </si>
-  <si>
-    <t>7.3.2</t>
-  </si>
-  <si>
-    <t>PPUs will report the received maps from other PPUs</t>
-  </si>
-  <si>
-    <t>ROS</t>
-  </si>
-  <si>
-    <t>The system shall share target information</t>
-  </si>
-  <si>
-    <t>The system shall have the ability to communicate confirmed target tracks</t>
-  </si>
-  <si>
-    <t>7.4.1</t>
-  </si>
-  <si>
-    <t>PPUs will report all receied confirmed tracks</t>
-  </si>
-  <si>
-    <t>The system shall tag/confirm targets using pre-tagged identifiers</t>
-  </si>
-  <si>
-    <t>The targets will be pre tagged</t>
-  </si>
-  <si>
-    <t>Tags shall be transferable</t>
-  </si>
-  <si>
-    <t>8.1.1</t>
-  </si>
-  <si>
-    <t>QR Codes</t>
-  </si>
-  <si>
-    <t>The system shall be capable of identifying tags</t>
-  </si>
-  <si>
-    <t>The system shall have a target tag sensor/identifier</t>
-  </si>
-  <si>
-    <t>8.2.1</t>
-  </si>
-  <si>
-    <t>The system will report identified tags</t>
-  </si>
-  <si>
-    <t>The system shall confirm targets tags</t>
-  </si>
-  <si>
-    <t>The system shall detect target tags with TBD% probability of detection</t>
-  </si>
-  <si>
-    <t>8.3.1</t>
-  </si>
-  <si>
-    <t>Statistical tests on verification of 8.2.1</t>
-  </si>
-  <si>
-    <t>Xtion/OpenCV</t>
-  </si>
-  <si>
-    <t>The system shall detect target tags within TBD distance</t>
-  </si>
-  <si>
-    <t>8.3.2</t>
-  </si>
-  <si>
-    <t>Range tests on verification of 8.2.1</t>
-  </si>
-  <si>
-    <t>Tags shall be independently identifiable</t>
-  </si>
-  <si>
-    <t>Tags shall have a uniquely determined, measurable characteristic</t>
-  </si>
-  <si>
-    <t>8.4.1</t>
-  </si>
-  <si>
-    <t>Report tag ID number, confirm all tags are uniquely identified</t>
-  </si>
-  <si>
-    <t>The system shall operate in various indoor lighting conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall operate in environments with 60 Hz fluroescent lighting </t>
-  </si>
-  <si>
-    <t>The system visual sensor performance shall not be affected by 60 Hz light flickering</t>
-  </si>
-  <si>
-    <t>9.1.1</t>
-  </si>
-  <si>
-    <t>Operation of system in florescent lighting</t>
-  </si>
-  <si>
-    <t>The system shall operate in environments with little to no existing light</t>
-  </si>
-  <si>
-    <t>The system shall maintain vehicle state estimate to within TBD distance in no light conditions</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>Run verification of localization in no lighting (drapes over windows, lights off)</t>
-  </si>
-  <si>
-    <t>Range finder on xtion, sonic and laser rangefinders</t>
-  </si>
-  <si>
-    <t>The system shall maintain obstacle avoidance in no light conditions</t>
-  </si>
-  <si>
-    <t>9.2.2</t>
-  </si>
-  <si>
-    <t>Run verification of obstacle avoidance in no lighting (drapes over windows, lights off)</t>
-  </si>
-  <si>
-    <t>The system shall maintain target identification and tracking requirements in rooms with</t>
-  </si>
-  <si>
-    <t>9.2.3</t>
-  </si>
-  <si>
-    <t>Run target identification and tracking tests in no lighting</t>
-  </si>
-  <si>
-    <t>The system shall be compatible with VICON</t>
-  </si>
-  <si>
-    <t>The system shall not interfere with VICON or suffer fault due to vicon operation (for testing purposes)</t>
-  </si>
-  <si>
-    <t>9.3.1</t>
-  </si>
-  <si>
-    <t>Static test</t>
-  </si>
-  <si>
-    <t>Keywords/Acronyms</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Team of vehicles + PPUs performing the mission</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Mission</t>
-  </si>
-  <si>
-    <t>Searching an unknown territory for a target</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>A human or object of interest for searching/tracking</t>
-  </si>
-  <si>
-    <t>Perception</t>
-  </si>
-  <si>
-    <t>Interpretation/manipulation of data from sensors</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>The vehicle frame, electronics, and (if applicable) motors and wheels. Does not include PPU.</t>
-  </si>
-  <si>
-    <t>PPU (Perception and Planning Unit)</t>
-  </si>
-  <si>
-    <t>All hardware necessary to perform computation, sensing, and send movement commands to a vehicle. Includes autopilot and additional sensors (when applicable)</t>
-  </si>
-  <si>
-    <t>External Weight</t>
-  </si>
-  <si>
-    <t>Any weight that is additional to platform and PPU weight</t>
-  </si>
-  <si>
-    <t>Onboard</t>
-  </si>
-  <si>
-    <t>Attached to any one of the vehicles in the system</t>
-  </si>
-  <si>
-    <t>Unrecoverable Collision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collision which renders the vehicle incapable of moving. </t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>using partial, prior information, e.g. building plans.</t>
+    </r>
+  </si>
+  <si>
+    <t>The system shall be autonomous, i.e. no human input once the system begins a search.</t>
+  </si>
+  <si>
+    <r>
+      <t>The aerial vehicle shal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">l </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>be capable of delivering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a 1 lb payload</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The aerial vehicle shall navigate to a delivery zone </t>
+  </si>
+  <si>
+    <t>The vehicle PPUs shall communicate obstacle and target state information with other PPUs</t>
+  </si>
+  <si>
+    <t>All hardware necessary to perform computation, sensing, and send movement commands to a vehicle. Includes autopilot and additional sensors (when applicable). There will be one PPU per vehicle</t>
+  </si>
+  <si>
+    <t>The system shall not have any off-vehicle sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall search a 50,000 ft^2 area </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -848,6 +918,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -976,9 +1064,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -991,18 +1076,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1026,12 +1102,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1359,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1372,7 +1465,7 @@
     <col min="6" max="6" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,913 +1485,913 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="19">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:6" ht="38">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:6" ht="38">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="57">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="95">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57">
+      <c r="A13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38">
+      <c r="A16" s="20"/>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19">
+      <c r="A17" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="38">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="38">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36">
+      <c r="A20" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36">
+      <c r="A22" s="19"/>
+      <c r="B22" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="54">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="36">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="54">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="38">
+      <c r="A23" s="19"/>
+      <c r="B23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="38">
+      <c r="A24" s="20"/>
+      <c r="B24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="36">
+      <c r="A25" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="72">
+      <c r="A26" s="19"/>
+      <c r="B26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="38">
+      <c r="A27" s="19"/>
+      <c r="B27" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="90">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="54">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="36">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="36">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="54">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="54">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="36">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="36">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="36">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="36">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="36">
-      <c r="A20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="36">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="36">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="7" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="38">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="38">
+      <c r="A29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="36">
+      <c r="A31" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="38">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="38">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19">
+      <c r="A34" s="19"/>
+      <c r="B34" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="36">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="36">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="36">
-      <c r="A25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="72">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="36">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="36">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="36">
-      <c r="A29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="54">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="36">
-      <c r="A31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="36">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="8" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="38">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="36">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="8" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="19">
+      <c r="A36" s="19"/>
+      <c r="B36" s="18" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="18">
-      <c r="A34" s="9"/>
-      <c r="B34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="F36" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="38">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="36">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="8" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="38">
+      <c r="A38" s="20"/>
+      <c r="B38" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="18">
-      <c r="A36" s="9"/>
-      <c r="B36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F38" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19">
+      <c r="A39" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="36">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="E39" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="36">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8" t="s">
+    <row r="40" spans="1:6" ht="38">
+      <c r="A40" s="19"/>
+      <c r="B40" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F40" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="38">
+      <c r="A41" s="19"/>
+      <c r="B41" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="38">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="38">
+      <c r="A43" s="20"/>
+      <c r="B43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18">
-      <c r="A39" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="36">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="36">
-      <c r="A41" s="9"/>
-      <c r="B41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="7" t="s">
+    <row r="44" spans="1:6" ht="38">
+      <c r="A44" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="B44" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="36">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D44" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="36">
-      <c r="A43" s="11"/>
-      <c r="B43" s="8" t="s">
+      <c r="F44" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="38">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="36">
-      <c r="A44" s="13" t="s">
+      <c r="F45" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="5" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="38">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E46" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F46" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="38">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="36">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
+      <c r="D47" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="F47" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="57">
+      <c r="A48" s="21"/>
+      <c r="B48" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="D48" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="36">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="F48" s="17"/>
+    </row>
+    <row r="51" spans="1:2" ht="19">
+      <c r="A51" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="B51" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="36">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="5" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="19">
+      <c r="A52" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="B52" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="7" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="19">
+      <c r="A53" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="54">
-      <c r="A48" s="13"/>
-      <c r="B48" s="8" t="s">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="1:2" ht="19">
+      <c r="A54" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="B54" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="7" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="19">
+      <c r="A55" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="B55" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="51" spans="1:2" ht="18">
-      <c r="A51" s="15" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="19">
+      <c r="A56" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18">
-      <c r="A52" s="17" t="s">
+    <row r="57" spans="1:2" ht="38">
+      <c r="A57" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B57" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18">
-      <c r="A53" s="17" t="s">
+    <row r="58" spans="1:2" ht="72">
+      <c r="A58" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:2" ht="18">
-      <c r="A54" s="17" t="s">
+      <c r="B58" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19">
+      <c r="A59" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B59" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18">
-      <c r="A55" s="17" t="s">
+    <row r="60" spans="1:2" ht="19">
+      <c r="A60" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B60" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18">
-      <c r="A56" s="17" t="s">
+    <row r="61" spans="1:2" ht="19">
+      <c r="A61" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B61" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="36">
-      <c r="A57" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="54">
-      <c r="A58" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18">
-      <c r="A59" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18">
-      <c r="A60" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18">
-      <c r="A61" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Administration/Documentation/flynet_requirements_chart.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="213">
   <si>
     <t>Level 1 Requirement</t>
   </si>
@@ -72,21 +72,12 @@
     <t>The system shall locate individual targets in images with 95% probability of detection</t>
   </si>
   <si>
-    <t>1.1.4</t>
-  </si>
-  <si>
     <t>Correctly identify all targets in image with 95% accuracy, run statistics on experimental results</t>
   </si>
   <si>
     <t>Tune parameters of OpenCV tracking software to identify targets with correct POD</t>
   </si>
   <si>
-    <t>The system shall identify inanimate targets within TBD distance</t>
-  </si>
-  <si>
-    <t>The system shall identify human targets within TBD distance</t>
-  </si>
-  <si>
     <t>1.1.5</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>The vehicles shall move through the environment along planned trajectories to within TBD RMS error of the planned trajectory.</t>
-  </si>
-  <si>
     <t>1.2.3</t>
   </si>
   <si>
@@ -132,18 +120,12 @@
     <t>Interfacing of trajectory planner with Pixhawk position controller</t>
   </si>
   <si>
-    <t>The aerial vehicle will maintain a minimum distance of TBD from obstacles</t>
-  </si>
-  <si>
     <t>The vehicle will be sent on a crash course with obstacles, the minimum distance between vehicle and obstacle will be measured by a VICON system</t>
   </si>
   <si>
     <t>Position control/obstacle avoidance algorithms will maintain distance</t>
   </si>
   <si>
-    <t>The system shall have power to sustain TBD minutes of search time with full payload</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>Battery and motor choices? Platform choice/weight and sensor and computer weights</t>
   </si>
   <si>
-    <t>The system shall travel a minimum of TBD distance</t>
-  </si>
-  <si>
     <t>1.3.2</t>
   </si>
   <si>
@@ -237,28 +216,6 @@
     <t>Quadrotor aerial vehicle</t>
   </si>
   <si>
-    <r>
-      <t>The aerial vehicle shall be able to take off</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>autonomusly</t>
-    </r>
-  </si>
-  <si>
     <t>3.1.2</t>
   </si>
   <si>
@@ -280,37 +237,6 @@
     <t>Autonomous landing sequence for quad through software, uses altimeter (rangefinder)</t>
   </si>
   <si>
-    <r>
-      <t>The system shall not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rely on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> external processing</t>
-    </r>
-  </si>
-  <si>
     <t>The system shall carry processing capabilities onboard</t>
   </si>
   <si>
@@ -389,9 +315,6 @@
     <t>Quadrotor platform</t>
   </si>
   <si>
-    <t>The aerial vehicle shall identify the delivery zone based on confirmed target ID and target position (clarify delivery zone, near targets?, identifiable by landmarks? Etc.)</t>
-  </si>
-  <si>
     <t>5.2.1</t>
   </si>
   <si>
@@ -419,33 +342,6 @@
     <t>Visually verify payload release</t>
   </si>
   <si>
-    <t>The aerial vehicle shall have a minimum 10 minute flight time</t>
-  </si>
-  <si>
-    <t>The aerial vehicle shall supply power for 10 minutes</t>
-  </si>
-  <si>
-    <t>The aerial vehicle shall support electronic power for PPU 10 minutes</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>Flight and system power timing test</t>
-  </si>
-  <si>
-    <t>Batteries</t>
-  </si>
-  <si>
-    <t>The aerial vehicle shall support flight power for 10 minutes at constant altitude with TBD velocity</t>
-  </si>
-  <si>
-    <t>6.1.2</t>
-  </si>
-  <si>
-    <t>Flight testing</t>
-  </si>
-  <si>
     <t>PPUs shall each have the capability to receive data</t>
   </si>
   <si>
@@ -470,29 +366,6 @@
     <t>LTE, Wifi, Radio receiver</t>
   </si>
   <si>
-    <r>
-      <t>PPUs will exchange information with a frequency of TBD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>7.1.3</t>
-  </si>
-  <si>
-    <t>Information exchange times between PPUs will be recorded</t>
-  </si>
-  <si>
-    <t>Limited by: Comm through building, or algorithm scheduled meetings for information exchange</t>
-  </si>
-  <si>
     <t>The system shall detect the position of obstacles</t>
   </si>
   <si>
@@ -583,9 +456,6 @@
     <t>The system shall confirm targets tags</t>
   </si>
   <si>
-    <t>The system shall detect target tags with TBD% probability of detection</t>
-  </si>
-  <si>
     <t>8.3.1</t>
   </si>
   <si>
@@ -595,9 +465,6 @@
     <t>Xtion/OpenCV</t>
   </si>
   <si>
-    <t>The system shall detect target tags within TBD distance</t>
-  </si>
-  <si>
     <t>8.3.2</t>
   </si>
   <si>
@@ -634,9 +501,6 @@
     <t>The system shall operate in environments with little to no existing light</t>
   </si>
   <si>
-    <t>The system shall maintain vehicle state estimate to within TBD distance in no light conditions</t>
-  </si>
-  <si>
     <t>9.2.1</t>
   </si>
   <si>
@@ -655,15 +519,6 @@
     <t>Run verification of obstacle avoidance in no lighting (drapes over windows, lights off)</t>
   </si>
   <si>
-    <t>The system shall maintain target identification and tracking requirements in rooms with</t>
-  </si>
-  <si>
-    <t>9.2.3</t>
-  </si>
-  <si>
-    <t>Run target identification and tracking tests in no lighting</t>
-  </si>
-  <si>
     <t>The system shall be compatible with VICON</t>
   </si>
   <si>
@@ -742,110 +597,9 @@
     <t>1.2.4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The system shall consist of a team of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>at least 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> robots</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The vehicles shall maintain communication throughout the mission</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">amongst themselves </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[must they be in communication at all times, or able to talk when close enough?]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The system shall navigate an unknown environment,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>using partial, prior information, e.g. building plans.</t>
-    </r>
-  </si>
-  <si>
     <t>The system shall be autonomous, i.e. no human input once the system begins a search.</t>
   </si>
   <si>
-    <r>
-      <t>The aerial vehicle shal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>be capable of delivering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a 1 lb payload</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">The aerial vehicle shall navigate to a delivery zone </t>
   </si>
   <si>
@@ -859,51 +613,63 @@
   </si>
   <si>
     <t xml:space="preserve">The system shall search a 50,000 ft^2 area </t>
+  </si>
+  <si>
+    <t>The system shall travel a minimum of 1 mile</t>
+  </si>
+  <si>
+    <t>The system shall have power to sustain 10 minutes of search time with full payload</t>
+  </si>
+  <si>
+    <t>The system shall navigate an unknown environment, using partial, prior information, e.g. building plans.</t>
+  </si>
+  <si>
+    <t>The system shall consist of a team of at least 2 robots</t>
+  </si>
+  <si>
+    <t>The aerial vehicle shall be able to take off autonomusly</t>
+  </si>
+  <si>
+    <t>The system shall not rely on external processing</t>
+  </si>
+  <si>
+    <t>The aerial vehicle shall be capable of delivering a 1 lb payload</t>
+  </si>
+  <si>
+    <t>The vehicles shall maintain communication intermittently throughout the mission amongst themselves</t>
+  </si>
+  <si>
+    <t>The aerial vehicle shall identify the delivery zone within 5 meters confirmed target ID and target position.</t>
+  </si>
+  <si>
+    <t>The vehicles shall move through the environment along planned trajectories to within 20 RMS error of the planned trajectory when no obstacles are present.</t>
+  </si>
+  <si>
+    <t>The aerial vehicle will maintain a minimum distance of 5 cm from obstacles</t>
+  </si>
+  <si>
+    <t>The system shall detect target tags with 95% probability of detection</t>
+  </si>
+  <si>
+    <t>The system shall detect target tags within 5 meters</t>
+  </si>
+  <si>
+    <t>The system shall navigate without collision in no lighting conditions</t>
+  </si>
+  <si>
+    <t>The system shall identify human targets within 5 meters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -920,22 +686,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <i/>
+      <sz val="16"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri (Body)"/>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1055,13 +821,31 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,44 +860,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1465,958 +1231,876 @@
     <col min="6" max="6" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="20">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:6" ht="32">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:6" ht="32">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="48">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="38">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="57">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="32">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="36">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="F6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="48">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="57">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="4" t="s">
+      <c r="F7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="96">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="95">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:6" ht="48">
+      <c r="A9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="32">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E10" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="57">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="32">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="E11" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="36">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="48">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="38">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="48">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="57">
-      <c r="A13" s="18" t="s">
+      <c r="D13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="E13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="32">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="E14" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="57">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="32">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="38">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="C16" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="38">
-      <c r="A16" s="20"/>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="F16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="32">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="E17" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="19">
-      <c r="A17" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="32">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="4" t="s">
+    <row r="19" spans="1:6" ht="32">
+      <c r="A19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="4" t="s">
+    <row r="20" spans="1:6" ht="32">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36">
-      <c r="A20" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="18" t="s">
+    <row r="21" spans="1:6" ht="32">
+      <c r="A21" s="14"/>
+      <c r="B21" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="32">
+      <c r="A22" s="14"/>
+      <c r="B22" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="38">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36">
-      <c r="A22" s="19"/>
-      <c r="B22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    <row r="23" spans="1:6" ht="32">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C23" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="D23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="E23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="38">
-      <c r="A23" s="19"/>
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="1:6" ht="32">
+      <c r="A24" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F24" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="38">
-      <c r="A24" s="20"/>
-      <c r="B24" s="7" t="s">
+    <row r="25" spans="1:6" ht="48">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E25" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="F25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="7" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="32">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="36">
-      <c r="A25" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="C26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="32">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="D27" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="E27" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="72">
-      <c r="A26" s="19"/>
-      <c r="B26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="F27" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="32">
+      <c r="A28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F28" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="38">
-      <c r="A27" s="19"/>
-      <c r="B27" s="18" t="s">
+    <row r="29" spans="1:6" ht="32">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E29" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="38">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="4" t="s">
+      <c r="F29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="5" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="16">
+      <c r="A30" s="14"/>
+      <c r="B30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="C30" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="38">
-      <c r="A29" s="18" t="s">
+      <c r="D30" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="E30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="48">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E31" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F31" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="4" t="s">
+    <row r="32" spans="1:6" ht="16">
+      <c r="A32" s="14"/>
+      <c r="B32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="D32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="E32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="36">
-      <c r="A31" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="5" t="s">
+    <row r="33" spans="1:6" ht="32">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="D33" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="E33" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="38">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="4" t="s">
+      <c r="F33" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="32">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="C34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="D34" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="38">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="4" t="s">
+      <c r="E34" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="F34" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16">
+      <c r="A35" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="B35" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="C35" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="19">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18" t="s">
+      <c r="D35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="5" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="32">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="38">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="4" t="s">
+      <c r="D36" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E36" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F36" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="32">
+      <c r="A37" s="14"/>
+      <c r="B37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="C37" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="19">
-      <c r="A36" s="19"/>
-      <c r="B36" s="18" t="s">
+      <c r="E37" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="F37" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="5" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="32">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E38" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="38">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="4" t="s">
+      <c r="F38" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="32">
+      <c r="A39" s="16"/>
+      <c r="B39" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="C39" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="D39" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="E39" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="38">
-      <c r="A38" s="20"/>
-      <c r="B38" s="7" t="s">
+      <c r="F39" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="32">
+      <c r="A40" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="B40" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="C40" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="D40" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19">
-      <c r="A39" s="18" t="s">
+      <c r="E40" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="F40" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="32">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C41" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E41" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="F41" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38">
-      <c r="A40" s="19"/>
-      <c r="B40" s="7" t="s">
+    <row r="42" spans="1:6" ht="32">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D42" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E42" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F42" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48">
+      <c r="A43" s="18"/>
+      <c r="B43" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="38">
-      <c r="A41" s="19"/>
-      <c r="B41" s="18" t="s">
+      <c r="C43" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D43" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E43" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F43" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="18">
+      <c r="A46" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="4" t="s">
+    <row r="47" spans="1:6" ht="18">
+      <c r="A47" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="6" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="18">
+      <c r="A48" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="38">
-      <c r="A43" s="20"/>
-      <c r="B43" s="7" t="s">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="5" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="18">
+      <c r="A50" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="38">
-      <c r="A44" s="21" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="18">
+      <c r="A51" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="4" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="36">
+      <c r="A52" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="B52" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="6" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="72">
+      <c r="A53" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="38">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21" t="s">
+      <c r="B53" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
+      <c r="A54" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="6" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="18">
+      <c r="A55" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F45" s="16" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="18">
+      <c r="A56" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="38">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="38">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="57">
-      <c r="A48" s="21"/>
-      <c r="B48" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="51" spans="1:2" ht="19">
-      <c r="A51" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="19">
-      <c r="A52" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="19">
-      <c r="A53" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="1:2" ht="19">
-      <c r="A54" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="19">
-      <c r="A55" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="19">
-      <c r="A56" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="38">
-      <c r="A57" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="72">
-      <c r="A58" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="19">
-      <c r="A59" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="19">
-      <c r="A60" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="19">
-      <c r="A61" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A39:A43"/>
+  <mergeCells count="20">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Administration/Documentation/flynet_requirements_chart.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart.xlsx
@@ -845,9 +845,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -860,18 +857,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -880,6 +868,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1252,738 +1252,738 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="48">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="96">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="32">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
-      <c r="A26" s="14"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="10" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16">
-      <c r="A30" s="14"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16">
-      <c r="A32" s="14"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="14"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="14"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="32">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="48">
-      <c r="A43" s="18"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="21"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="18">
       <c r="A46" s="1" t="s">
@@ -2081,18 +2081,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B41:B42"/>
@@ -2101,6 +2089,18 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Administration/Documentation/flynet_requirements_chart.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="214">
   <si>
     <t>Level 1 Requirement</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>The system shall identify human targets within 5 meters</t>
+  </si>
+  <si>
+    <t>Change Log:</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2079,8 +2082,25 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
     </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B41:B42"/>
@@ -2089,18 +2109,6 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
